--- a/output/instance_SMALL_scenario_2/variable_values1.xlsx
+++ b/output/instance_SMALL_scenario_2/variable_values1.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>3287278.162065211</v>
       </c>
       <c r="E13" t="n">
-        <v>999999.9999999995</v>
+        <v>1039717.409272731</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -838,10 +838,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>2694672.828333232</v>
+        <v>2654955.4190605</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.916241884231567e-09</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.056406935734315e-15</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -866,10 +866,10 @@
         <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>2963793.864680083</v>
+        <v>2920109.81788753</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>6.984919309616089e-09</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.850013895572556e-15</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -894,10 +894,10 @@
         <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>3197174.594922804</v>
+        <v>3150050.695290983</v>
       </c>
       <c r="E16" t="n">
-        <v>3409430.104301436</v>
+        <v>7.916241884231567e-09</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2.120975116096605e-15</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -917,17 +917,15 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n">
-        <v>17</v>
-      </c>
+      <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>100000</v>
+        <v>3359177.721371841</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.862645149230957e-09</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -936,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.107719255606494e-16</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -949,13 +947,13 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>122409.102613965</v>
+        <v>3500000</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3632521.49957463</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -964,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -975,12 +973,14 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
+      <c r="B19" s="1" t="n">
+        <v>33</v>
+      </c>
       <c r="C19" s="1" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>158861.8620250422</v>
+        <v>100000</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="1" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
-        <v>260005.5780908774</v>
+        <v>170087.9502872736</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1033,10 +1033,10 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="1" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
-        <v>449609.5229712698</v>
+        <v>265092.8767409524</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1061,10 +1061,10 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D22" t="n">
-        <v>725810.0623346955</v>
+        <v>420550.988797452</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1089,10 +1089,10 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D23" t="n">
-        <v>937191.5255597432</v>
+        <v>594907.4860332878</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D24" t="n">
-        <v>1123574.58548851</v>
+        <v>763872.207668193</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D25" t="n">
-        <v>1313907.640420658</v>
+        <v>873011.0159633673</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1173,10 +1173,10 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>1466110.488477185</v>
+        <v>941125.1510173962</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="n"/>
       <c r="C27" s="1" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D27" t="n">
-        <v>1651300.400085286</v>
+        <v>1012204.05829138</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="n"/>
       <c r="C28" s="1" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D28" t="n">
-        <v>1761741.869403585</v>
+        <v>1094439.343964068</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="n"/>
       <c r="C29" s="1" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D29" t="n">
-        <v>1866572.855627837</v>
+        <v>1243843.315816695</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="n"/>
       <c r="C30" s="1" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D30" t="n">
-        <v>2008125.537707529</v>
+        <v>1459443.557486409</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1313,10 +1313,10 @@
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D31" t="n">
-        <v>2211924.784829633</v>
+        <v>1773723.64798254</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="n"/>
       <c r="C32" s="1" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D32" t="n">
-        <v>2535909.524948782</v>
+        <v>2175804.506558472</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="n"/>
       <c r="C33" s="1" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D33" t="n">
-        <v>3004251.35926437</v>
+        <v>2612634.666717113</v>
       </c>
       <c r="E33" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1397,10 +1397,10 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="n"/>
       <c r="C34" s="1" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D34" t="n">
-        <v>2566566.819411978</v>
+        <v>3013924.300855021</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1425,13 +1425,13 @@
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="n"/>
       <c r="C35" s="1" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D35" t="n">
-        <v>2980162.013558866</v>
+        <v>3383233.150804496</v>
       </c>
       <c r="E35" t="n">
-        <v>-4.656612873077393e-10</v>
+        <v>1000000</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1453,13 +1453,13 @@
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="n"/>
       <c r="C36" s="1" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D36" t="n">
-        <v>3368052.393282231</v>
+        <v>2707618.521214356</v>
       </c>
       <c r="E36" t="n">
-        <v>1000000</v>
+        <v>-4.656612873077393e-10</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1481,13 +1481,13 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="n"/>
       <c r="C37" s="1" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D37" t="n">
-        <v>2720580.857676543</v>
+        <v>2925287.19023228</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-4.656612873077393e-10</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1509,13 +1509,13 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="n"/>
       <c r="C38" s="1" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D38" t="n">
-        <v>2944743.008665645</v>
+        <v>3073305.496549006</v>
       </c>
       <c r="E38" t="n">
-        <v>3149067.971012631</v>
+        <v>3213428.082130968</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -1536,10 +1536,10 @@
     <row r="39">
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D39" t="n">
         <v>100000</v>
@@ -1567,10 +1567,10 @@
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D40" t="n">
-        <v>122409.102613965</v>
+        <v>147591.5062974536</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1595,10 +1595,10 @@
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="n"/>
       <c r="C41" s="1" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D41" t="n">
-        <v>158861.8620250422</v>
+        <v>235984.1983118628</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1623,10 +1623,10 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="n"/>
       <c r="C42" s="1" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D42" t="n">
-        <v>260005.5780908774</v>
+        <v>426948.9723715302</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="n"/>
       <c r="C43" s="1" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D43" t="n">
-        <v>449609.5229712698</v>
+        <v>679424.1985213653</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1672,407 +1672,15 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="D44" t="n">
-        <v>725810.0623346955</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="D45" t="n">
-        <v>937191.5255597432</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n"/>
-      <c r="C46" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1123574.58548851</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1313907.640420658</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="n"/>
-      <c r="C48" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1466110.488477185</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1651300.400085286</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n"/>
-      <c r="C50" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1761741.869403585</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n"/>
-      <c r="C51" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1866572.855627837</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="n"/>
-      <c r="C52" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2008125.537707529</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2211924.784829633</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2535909.524948782</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3004251.35926437</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2566566.819411978</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="n"/>
-      <c r="C57" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2980162.013558867</v>
-      </c>
-      <c r="E57" t="n">
-        <v>3460406.937347548</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A57"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="B17:B38"/>
-    <mergeCell ref="B39:B57"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B19:B38"/>
+    <mergeCell ref="B39:B43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
